--- a/00-Github/使い方.xlsx
+++ b/00-Github/使い方.xlsx
@@ -16,17 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>＜クラウドの使い方＞</t>
-    <rPh sb="6" eb="7">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>https://qiita.com/TanakanoAnchan/items/f9b8d0ec4a6f57cbefcf</t>
   </si>
@@ -78,13 +68,77 @@
   </si>
   <si>
     <t>https://www.backlog.jp/git-guide/intro/intro1_2.html</t>
+  </si>
+  <si>
+    <t>＜ローカルリポジトリ側＞</t>
+    <rPh sb="10" eb="11">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモート側へ追加(プッシュ)する</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.backlog.jp/git-guide/intro/intro4_2.html</t>
+  </si>
+  <si>
+    <t>grass-wonder</t>
+  </si>
+  <si>
+    <t>ossar005sh@gmail.com</t>
+  </si>
+  <si>
+    <t>ossar5945</t>
+  </si>
+  <si>
+    <t>→ローカル(子)からの場合は、ローカル(親)へプッシュしてから、
+   ローカル(親)からリモートへプッシュする</t>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス＆ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.backlog.jp/git-guide/intro/intro4_3.html</t>
+  </si>
+  <si>
+    <t>リモート側からダウンロード(クローン)する</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/grass-wonder/main.git</t>
+  </si>
+  <si>
+    <t>GitHub Main URL</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,16 +169,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -132,16 +209,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,66 +597,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="2" width="4.25" customWidth="1"/>
-    <col min="3" max="3" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.75" customWidth="1"/>
+    <col min="6" max="6" width="2.25" customWidth="1"/>
+    <col min="7" max="7" width="37.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D12" t="s">
-        <v>6</v>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
